--- a/data/output/FV2304_FV2210/QUOTES/15002.xlsx
+++ b/data/output/FV2304_FV2210/QUOTES/15002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="238">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="238">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -815,6 +815,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U107" totalsRowShown="0">
+  <autoFilter ref="A1:U107"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,7 +1134,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5932,5 +5965,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/QUOTES/15002.xlsx
+++ b/data/output/FV2304_FV2210/QUOTES/15002.xlsx
@@ -1553,7 +1553,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2211,7 +2211,7 @@
         <v>224</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2399,7 +2399,7 @@
         <v>225</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2"/>
@@ -2725,7 +2725,7 @@
         <v>226</v>
       </c>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3105,7 +3105,7 @@
         <v>228</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -4981,7 +4981,7 @@
         <v>233</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5381,7 +5381,7 @@
         <v>228</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5695,7 +5695,7 @@
         <v>228</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -5887,7 +5887,7 @@
         <v>228</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6079,7 +6079,7 @@
         <v>237</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2"/>
@@ -6355,7 +6355,7 @@
         <v>228</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2"/>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2"/>
